--- a/Code/SampleRun_Environment_Solar/1500Scens/1500_LB_Time_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/1500Scens/1500_LB_Time_CI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\1500Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8252F64-5742-4BC6-8D06-B11234708E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB0C1E-9AB0-4BDB-A71D-AF6DD3B063BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8899,8 +8899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="L11" s="2">
         <f>AVERAGE(C22:C41)</f>
-        <v>248.06712749999991</v>
+        <v>174.4</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
@@ -9275,11 +9275,11 @@
       </c>
       <c r="O12">
         <f>L11+(-$G$10)*L15/(SQRT(20))</f>
-        <v>246.37453520038912</v>
+        <v>164.57533434023327</v>
       </c>
       <c r="P12">
         <f>L11+$G$10*L15/(SQRT(20))</f>
-        <v>249.75971979961071</v>
+        <v>184.22466565976674</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="L15">
         <f>_xlfn.STDEV.S(C22:C41)</f>
-        <v>3.6165388851131599</v>
+        <v>20.992229138672453</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -9480,7 +9480,7 @@
         <v>0.05</v>
       </c>
       <c r="C22">
-        <v>252.47711000000001</v>
+        <v>180</v>
       </c>
       <c r="D22">
         <v>2083</v>
@@ -9497,7 +9497,7 @@
         <v>0.05</v>
       </c>
       <c r="C23">
-        <v>254.51549</v>
+        <v>151</v>
       </c>
       <c r="D23">
         <v>2085</v>
@@ -9514,7 +9514,7 @@
         <v>0.05</v>
       </c>
       <c r="C24">
-        <v>248.21289999999999</v>
+        <v>156</v>
       </c>
       <c r="D24">
         <v>2105</v>
@@ -9531,7 +9531,7 @@
         <v>0.05</v>
       </c>
       <c r="C25">
-        <v>247.70850999999999</v>
+        <v>180</v>
       </c>
       <c r="D25">
         <v>2104</v>
@@ -9549,7 +9549,7 @@
         <v>0.05</v>
       </c>
       <c r="C26">
-        <v>249.91776999999999</v>
+        <v>193</v>
       </c>
       <c r="D26">
         <v>2083</v>
@@ -9566,7 +9566,7 @@
         <v>0.05</v>
       </c>
       <c r="C27">
-        <v>249.12108000000001</v>
+        <v>119</v>
       </c>
       <c r="D27">
         <v>2096</v>
@@ -9584,7 +9584,7 @@
         <v>0.05</v>
       </c>
       <c r="C28">
-        <v>251.68659</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>2086</v>
@@ -9601,7 +9601,7 @@
         <v>0.05</v>
       </c>
       <c r="C29">
-        <v>250.62119000000001</v>
+        <v>173</v>
       </c>
       <c r="D29">
         <v>2102</v>
@@ -9618,7 +9618,7 @@
         <v>0.05</v>
       </c>
       <c r="C30">
-        <v>246.19983999999999</v>
+        <v>196</v>
       </c>
       <c r="D30">
         <v>2086</v>
@@ -9635,7 +9635,7 @@
         <v>0.05</v>
       </c>
       <c r="C31">
-        <v>247.72581</v>
+        <v>188</v>
       </c>
       <c r="D31">
         <v>2085</v>
@@ -9652,7 +9652,7 @@
         <v>0.05</v>
       </c>
       <c r="C32">
-        <v>243.27609000000001</v>
+        <v>148</v>
       </c>
       <c r="D32">
         <v>2105</v>
@@ -9669,7 +9669,7 @@
         <v>0.05</v>
       </c>
       <c r="C33">
-        <v>250.24026000000001</v>
+        <v>168</v>
       </c>
       <c r="D33">
         <v>2105</v>
@@ -9686,7 +9686,7 @@
         <v>0.05</v>
       </c>
       <c r="C34">
-        <v>250.94731999999999</v>
+        <v>195</v>
       </c>
       <c r="D34">
         <v>2083</v>
@@ -9703,7 +9703,7 @@
         <v>0.05</v>
       </c>
       <c r="C35">
-        <v>239.7901</v>
+        <v>182</v>
       </c>
       <c r="D35">
         <v>2082</v>
@@ -9720,7 +9720,7 @@
         <v>0.05</v>
       </c>
       <c r="C36">
-        <v>248.29647</v>
+        <v>196</v>
       </c>
       <c r="D36">
         <v>2087</v>
@@ -9737,7 +9737,7 @@
         <v>0.05</v>
       </c>
       <c r="C37">
-        <v>248.04944</v>
+        <v>179</v>
       </c>
       <c r="D37">
         <v>2082</v>
@@ -9754,7 +9754,7 @@
         <v>0.05</v>
       </c>
       <c r="C38">
-        <v>249.57310000000001</v>
+        <v>194</v>
       </c>
       <c r="D38">
         <v>2082</v>
@@ -9771,7 +9771,7 @@
         <v>0.05</v>
       </c>
       <c r="C39">
-        <v>246.9374</v>
+        <v>184</v>
       </c>
       <c r="D39">
         <v>2103</v>
@@ -9788,7 +9788,7 @@
         <v>0.05</v>
       </c>
       <c r="C40">
-        <v>242.47449</v>
+        <v>143</v>
       </c>
       <c r="D40">
         <v>2080</v>
@@ -9805,7 +9805,7 @@
         <v>0.05</v>
       </c>
       <c r="C41">
-        <v>243.57158999999999</v>
+        <v>175</v>
       </c>
       <c r="D41">
         <v>2097</v>
